--- a/notebooks/example_output.xlsx
+++ b/notebooks/example_output.xlsx
@@ -9,18 +9,18 @@
   <sheets>
     <sheet name="Expense Log" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Budget" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="April" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="August" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="December" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="February" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="January" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="July" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="June" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="March" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="May" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="November" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="October" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="September" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="January" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="February" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="March" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="April" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="May" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="June" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="July" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="August" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="September" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="October" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="November" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="December" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4348,17 +4348,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -4374,13 +4374,13 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -4396,17 +4396,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4422,13 +4422,13 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -4492,17 +4492,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
       <c r="F8" t="n">
-        <v>88</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -4518,13 +4518,13 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
       <c r="F9" t="n">
-        <v>88</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -4588,17 +4588,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -4614,13 +4614,13 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -4732,17 +4732,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>686</v>
+        <v>375</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>-586</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="19">
@@ -4758,13 +4758,13 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>686</v>
+        <v>375</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>-586</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="20">
@@ -4780,17 +4780,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>407</v>
+        <v>99</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -4806,13 +4806,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>407</v>
+        <v>99</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>-307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -4828,17 +4828,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23">
@@ -4854,13 +4854,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>838</v>
       </c>
     </row>
     <row r="24">
@@ -4876,17 +4876,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
       </c>
       <c r="F24" t="n">
-        <v>-204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -4902,13 +4902,13 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
       <c r="F25" t="n">
-        <v>-204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -4924,17 +4924,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>-307</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -4950,13 +4950,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>-307</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -4972,17 +4972,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>-51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -4998,13 +4998,13 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>-51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -5020,17 +5020,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="31">
@@ -5046,13 +5046,13 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="32">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -5116,17 +5116,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
       <c r="F34" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35">
@@ -5142,13 +5142,13 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -5208,13 +5208,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>2302</v>
+        <v>1316</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>1273</v>
+        <v>2259</v>
       </c>
     </row>
   </sheetData>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -5377,17 +5377,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>479</v>
+        <v>191</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>-179</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
@@ -5403,13 +5403,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>479</v>
+        <v>191</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>-179</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -5425,7 +5425,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -5473,17 +5473,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>-262</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -5499,13 +5499,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>-262</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -5569,17 +5569,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>-182</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="15">
@@ -5595,13 +5595,13 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>-182</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="16">
@@ -5617,17 +5617,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -5643,13 +5643,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -5713,17 +5713,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>-132</v>
       </c>
     </row>
     <row r="21">
@@ -5739,13 +5739,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>-132</v>
       </c>
     </row>
     <row r="22">
@@ -5761,17 +5761,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>645</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23">
@@ -5787,13 +5787,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>645</v>
+        <v>713</v>
       </c>
     </row>
     <row r="24">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -5857,17 +5857,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -5883,13 +5883,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -5905,17 +5905,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>-20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -5931,13 +5931,13 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>-20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -6097,17 +6097,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>-632</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -6123,13 +6123,13 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>-632</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -6141,13 +6141,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>2520</v>
+        <v>1235</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>1055</v>
+        <v>2340</v>
       </c>
     </row>
   </sheetData>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6262,17 +6262,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>-219</v>
       </c>
     </row>
     <row r="5">
@@ -6288,13 +6288,13 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>-219</v>
       </c>
     </row>
     <row r="6">
@@ -6310,17 +6310,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
@@ -6336,13 +6336,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
@@ -6358,17 +6358,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
       <c r="F8" t="n">
-        <v>150</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -6384,13 +6384,13 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
       <c r="F9" t="n">
-        <v>150</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -6454,17 +6454,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>-154</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -6480,13 +6480,13 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>-154</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -6502,17 +6502,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>-308</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -6528,13 +6528,13 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>-308</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -6550,17 +6550,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>426</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>-126</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
@@ -6576,13 +6576,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>426</v>
+        <v>57</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>-126</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -6646,17 +6646,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>-316</v>
       </c>
     </row>
     <row r="21">
@@ -6672,13 +6672,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>-316</v>
       </c>
     </row>
     <row r="22">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -6790,17 +6790,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>343</v>
+        <v>834</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>-243</v>
+        <v>-734</v>
       </c>
     </row>
     <row r="27">
@@ -6816,13 +6816,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>343</v>
+        <v>834</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>-243</v>
+        <v>-734</v>
       </c>
     </row>
     <row r="28">
@@ -6838,17 +6838,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>-361</v>
       </c>
     </row>
     <row r="29">
@@ -6864,13 +6864,13 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>-361</v>
       </c>
     </row>
     <row r="30">
@@ -6886,17 +6886,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
       <c r="F30" t="n">
-        <v>-296</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
@@ -6912,13 +6912,13 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
       <c r="F31" t="n">
-        <v>-296</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1418</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
       <c r="F32" t="n">
-        <v>-1338</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -6960,13 +6960,13 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>1418</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
       <c r="F33" t="n">
-        <v>-1338</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -6982,17 +6982,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
       <c r="F34" t="n">
-        <v>477</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35">
@@ -7008,13 +7008,13 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
       <c r="F35" t="n">
-        <v>477</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -7074,13 +7074,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>3293</v>
+        <v>2333</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>282</v>
+        <v>1242</v>
       </c>
     </row>
   </sheetData>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7195,17 +7195,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>-219</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -7221,13 +7221,13 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>-219</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -7243,17 +7243,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>141</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
@@ -7269,13 +7269,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>141</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -7291,17 +7291,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -7317,13 +7317,13 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7387,17 +7387,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="13">
@@ -7413,13 +7413,13 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="14">
@@ -7435,17 +7435,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>-308</v>
       </c>
     </row>
     <row r="15">
@@ -7461,13 +7461,13 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>75</v>
+        <v>-308</v>
       </c>
     </row>
     <row r="16">
@@ -7483,17 +7483,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>426</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>243</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="17">
@@ -7509,13 +7509,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>57</v>
+        <v>426</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>243</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="18">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7579,17 +7579,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-316</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -7605,13 +7605,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>-316</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -7723,17 +7723,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>834</v>
+        <v>343</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>-734</v>
+        <v>-243</v>
       </c>
     </row>
     <row r="27">
@@ -7749,13 +7749,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>834</v>
+        <v>343</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>-734</v>
+        <v>-243</v>
       </c>
     </row>
     <row r="28">
@@ -7771,17 +7771,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>-361</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -7797,13 +7797,13 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>-361</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -7819,17 +7819,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>-296</v>
       </c>
     </row>
     <row r="31">
@@ -7845,13 +7845,13 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>-296</v>
       </c>
     </row>
     <row r="32">
@@ -7867,17 +7867,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1418</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
       <c r="F32" t="n">
-        <v>80</v>
+        <v>-1338</v>
       </c>
     </row>
     <row r="33">
@@ -7893,13 +7893,13 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1418</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
       <c r="F33" t="n">
-        <v>80</v>
+        <v>-1338</v>
       </c>
     </row>
     <row r="34">
@@ -7915,17 +7915,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
       <c r="F34" t="n">
-        <v>500</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35">
@@ -7941,13 +7941,13 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -8007,13 +8007,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>2333</v>
+        <v>3293</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>1242</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -8176,17 +8176,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>109</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
@@ -8202,13 +8202,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>109</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -8224,7 +8224,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -8272,17 +8272,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="11">
@@ -8298,13 +8298,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="12">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -8368,17 +8368,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>-200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -8394,13 +8394,13 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>-200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -8416,17 +8416,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>105</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17">
@@ -8442,13 +8442,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>105</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -8512,17 +8512,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>232</v>
+        <v>404</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-132</v>
+        <v>-304</v>
       </c>
     </row>
     <row r="21">
@@ -8538,13 +8538,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>232</v>
+        <v>404</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>-132</v>
+        <v>-304</v>
       </c>
     </row>
     <row r="22">
@@ -8560,17 +8560,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>713</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -8586,13 +8586,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>713</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -8656,17 +8656,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -8682,13 +8682,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -8940,13 +8940,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>1235</v>
+        <v>537</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>2340</v>
+        <v>3038</v>
       </c>
     </row>
   </sheetData>
@@ -9319,17 +9319,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>587</v>
+        <v>335</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>-487</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="3">
@@ -9345,13 +9345,13 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>587</v>
+        <v>335</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>-487</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="4">
@@ -9367,17 +9367,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>-240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -9393,13 +9393,13 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>-240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -9463,17 +9463,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
       <c r="F8" t="n">
-        <v>150</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -9489,13 +9489,13 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
       <c r="F9" t="n">
-        <v>150</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -9511,17 +9511,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>-357</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -9537,13 +9537,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>-357</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -9751,17 +9751,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -9777,13 +9777,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -9799,17 +9799,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>348</v>
+        <v>145</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>652</v>
+        <v>855</v>
       </c>
     </row>
     <row r="23">
@@ -9825,13 +9825,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>348</v>
+        <v>145</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>652</v>
+        <v>855</v>
       </c>
     </row>
     <row r="24">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -9895,17 +9895,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>-233</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -9921,13 +9921,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>-233</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -10039,17 +10039,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
       <c r="F32" t="n">
-        <v>-353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -10065,13 +10065,13 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
       <c r="F33" t="n">
-        <v>-353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -10087,17 +10087,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
       <c r="F34" t="n">
-        <v>500</v>
+        <v>-269</v>
       </c>
     </row>
     <row r="35">
@@ -10113,13 +10113,13 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>-269</v>
       </c>
     </row>
     <row r="36">
@@ -10135,17 +10135,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>120</v>
+        <v>-718</v>
       </c>
     </row>
     <row r="37">
@@ -10161,13 +10161,13 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>120</v>
+        <v>-718</v>
       </c>
     </row>
     <row r="38">
@@ -10179,13 +10179,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>2448</v>
+        <v>2198</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>1127</v>
+        <v>1377</v>
       </c>
     </row>
   </sheetData>
@@ -10252,17 +10252,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>64</v>
+        <v>-226</v>
       </c>
     </row>
     <row r="3">
@@ -10278,13 +10278,13 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>64</v>
+        <v>-226</v>
       </c>
     </row>
     <row r="4">
@@ -10300,17 +10300,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>94</v>
+        <v>857</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>-757</v>
       </c>
     </row>
     <row r="5">
@@ -10326,13 +10326,13 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>94</v>
+        <v>857</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>-757</v>
       </c>
     </row>
     <row r="6">
@@ -10348,17 +10348,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
@@ -10374,13 +10374,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>-387</v>
       </c>
     </row>
     <row r="11">
@@ -10470,13 +10470,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>-387</v>
       </c>
     </row>
     <row r="12">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -10636,17 +10636,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>-275</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -10662,13 +10662,13 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>-275</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -10684,17 +10684,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -10710,13 +10710,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -10732,17 +10732,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>162</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -10758,13 +10758,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>162</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -10780,17 +10780,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -10806,13 +10806,13 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -10828,17 +10828,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -10854,13 +10854,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -10924,17 +10924,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
       <c r="F30" t="n">
-        <v>-260</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
@@ -10950,13 +10950,13 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
       <c r="F31" t="n">
-        <v>-260</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -11020,17 +11020,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
       <c r="F34" t="n">
-        <v>410</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35">
@@ -11046,13 +11046,13 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
       <c r="F35" t="n">
-        <v>410</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36">
@@ -11068,17 +11068,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>120</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="37">
@@ -11094,13 +11094,13 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>120</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="38">
@@ -11112,13 +11112,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>1316</v>
+        <v>3236</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>2259</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -11185,17 +11185,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -11211,13 +11211,13 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -11329,17 +11329,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
       <c r="F8" t="n">
-        <v>150</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -11355,13 +11355,13 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
       <c r="F9" t="n">
-        <v>150</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -11377,17 +11377,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>-83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -11403,13 +11403,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>-83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -11425,17 +11425,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -11451,13 +11451,13 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -11473,7 +11473,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -11569,17 +11569,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>-586</v>
       </c>
     </row>
     <row r="19">
@@ -11595,13 +11595,13 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>-586</v>
       </c>
     </row>
     <row r="20">
@@ -11617,17 +11617,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-304</v>
+        <v>-307</v>
       </c>
     </row>
     <row r="21">
@@ -11643,13 +11643,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>-304</v>
+        <v>-307</v>
       </c>
     </row>
     <row r="22">
@@ -11665,7 +11665,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -11713,17 +11713,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>-204</v>
       </c>
     </row>
     <row r="25">
@@ -11739,13 +11739,13 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>-204</v>
       </c>
     </row>
     <row r="26">
@@ -11761,17 +11761,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>-307</v>
       </c>
     </row>
     <row r="27">
@@ -11787,13 +11787,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>-307</v>
       </c>
     </row>
     <row r="28">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="29">
@@ -11835,13 +11835,13 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="30">
@@ -11857,17 +11857,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -11883,13 +11883,13 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -11905,7 +11905,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -11953,7 +11953,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -12045,13 +12045,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>537</v>
+        <v>2302</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>3038</v>
+        <v>1273</v>
       </c>
     </row>
   </sheetData>
@@ -12118,17 +12118,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>326</v>
+        <v>587</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>-226</v>
+        <v>-487</v>
       </c>
     </row>
     <row r="3">
@@ -12144,13 +12144,13 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>326</v>
+        <v>587</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>-226</v>
+        <v>-487</v>
       </c>
     </row>
     <row r="4">
@@ -12166,17 +12166,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>857</v>
+        <v>340</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>-757</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="5">
@@ -12192,13 +12192,13 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>857</v>
+        <v>340</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>-757</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="6">
@@ -12214,17 +12214,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>191</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
@@ -12240,13 +12240,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>191</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -12262,7 +12262,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -12310,17 +12310,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>-387</v>
+        <v>-357</v>
       </c>
     </row>
     <row r="11">
@@ -12336,13 +12336,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>-387</v>
+        <v>-357</v>
       </c>
     </row>
     <row r="12">
@@ -12358,7 +12358,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -12454,7 +12454,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -12502,7 +12502,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -12550,7 +12550,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -12598,17 +12598,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1000</v>
+        <v>348</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23">
@@ -12624,13 +12624,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>1000</v>
+        <v>348</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24">
@@ -12646,17 +12646,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
       </c>
       <c r="F24" t="n">
-        <v>111</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -12672,13 +12672,13 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
       <c r="F25" t="n">
-        <v>111</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -12694,17 +12694,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>333</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>68</v>
+        <v>-233</v>
       </c>
     </row>
     <row r="27">
@@ -12720,13 +12720,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>333</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>68</v>
+        <v>-233</v>
       </c>
     </row>
     <row r="28">
@@ -12742,7 +12742,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -12790,7 +12790,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -12838,17 +12838,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
       <c r="F32" t="n">
-        <v>80</v>
+        <v>-353</v>
       </c>
     </row>
     <row r="33">
@@ -12864,13 +12864,13 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
       <c r="F33" t="n">
-        <v>80</v>
+        <v>-353</v>
       </c>
     </row>
     <row r="34">
@@ -12886,17 +12886,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
       <c r="F34" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35">
@@ -12912,13 +12912,13 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
       <c r="F35" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36">
@@ -12934,17 +12934,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>-86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -12960,13 +12960,13 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>-86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -12978,13 +12978,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>3236</v>
+        <v>2448</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>339</v>
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
@@ -13051,17 +13051,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>-235</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13077,13 +13077,13 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>-235</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -13099,7 +13099,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -13147,17 +13147,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="7">
@@ -13173,13 +13173,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="8">
@@ -13195,17 +13195,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
       <c r="F8" t="n">
-        <v>49</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -13221,13 +13221,13 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
       <c r="F9" t="n">
-        <v>49</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -13243,17 +13243,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>-262</v>
       </c>
     </row>
     <row r="11">
@@ -13269,13 +13269,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>-262</v>
       </c>
     </row>
     <row r="12">
@@ -13291,7 +13291,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -13339,17 +13339,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="15">
@@ -13365,13 +13365,13 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>75</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="16">
@@ -13387,17 +13387,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -13413,13 +13413,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -13435,7 +13435,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -13483,17 +13483,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -13509,13 +13509,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -13531,17 +13531,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>145</v>
+        <v>355</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>855</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23">
@@ -13557,13 +13557,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>145</v>
+        <v>355</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>855</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24">
@@ -13579,7 +13579,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -13675,17 +13675,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="29">
@@ -13701,13 +13701,13 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="30">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -13819,17 +13819,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
       <c r="F34" t="n">
-        <v>-269</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35">
@@ -13845,13 +13845,13 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
       <c r="F35" t="n">
-        <v>-269</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36">
@@ -13867,17 +13867,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>838</v>
+        <v>752</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>-718</v>
+        <v>-632</v>
       </c>
     </row>
     <row r="37">
@@ -13893,13 +13893,13 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>838</v>
+        <v>752</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>-718</v>
+        <v>-632</v>
       </c>
     </row>
     <row r="38">
@@ -13911,13 +13911,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>2198</v>
+        <v>2520</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>1377</v>
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
@@ -13984,7 +13984,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -14032,7 +14032,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -14080,17 +14080,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7">
@@ -14106,13 +14106,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -14176,17 +14176,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>498</v>
+        <v>332</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>-448</v>
+        <v>-282</v>
       </c>
     </row>
     <row r="11">
@@ -14202,13 +14202,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>498</v>
+        <v>332</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>-448</v>
+        <v>-282</v>
       </c>
     </row>
     <row r="12">
@@ -14224,17 +14224,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>-279</v>
+        <v>-353</v>
       </c>
     </row>
     <row r="13">
@@ -14250,13 +14250,13 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>-279</v>
+        <v>-353</v>
       </c>
     </row>
     <row r="14">
@@ -14272,7 +14272,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -14320,17 +14320,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>-4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -14346,13 +14346,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>-4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -14368,17 +14368,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>-228</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -14394,13 +14394,13 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>-228</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -14416,7 +14416,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -14464,17 +14464,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
     </row>
     <row r="23">
@@ -14490,13 +14490,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
     </row>
     <row r="24">
@@ -14512,7 +14512,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -14560,17 +14560,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>332</v>
+        <v>621</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>-232</v>
+        <v>-521</v>
       </c>
     </row>
     <row r="27">
@@ -14586,13 +14586,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>332</v>
+        <v>621</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>-232</v>
+        <v>-521</v>
       </c>
     </row>
     <row r="28">
@@ -14608,7 +14608,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -14800,17 +14800,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>120</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="37">
@@ -14826,13 +14826,13 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>120</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="38">
@@ -14844,13 +14844,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>1791</v>
+        <v>1892</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>1784</v>
+        <v>1683</v>
       </c>
     </row>
   </sheetData>
@@ -14917,7 +14917,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -14965,7 +14965,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -15013,17 +15013,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>254</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
@@ -15039,13 +15039,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>254</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -15061,7 +15061,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -15109,17 +15109,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>332</v>
+        <v>498</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>-282</v>
+        <v>-448</v>
       </c>
     </row>
     <row r="11">
@@ -15135,13 +15135,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>332</v>
+        <v>498</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>-282</v>
+        <v>-448</v>
       </c>
     </row>
     <row r="12">
@@ -15157,17 +15157,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>-353</v>
+        <v>-279</v>
       </c>
     </row>
     <row r="13">
@@ -15183,13 +15183,13 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>-353</v>
+        <v>-279</v>
       </c>
     </row>
     <row r="14">
@@ -15205,7 +15205,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -15253,17 +15253,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="17">
@@ -15279,13 +15279,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="18">
@@ -15301,17 +15301,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>-228</v>
       </c>
     </row>
     <row r="19">
@@ -15327,13 +15327,13 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>-228</v>
       </c>
     </row>
     <row r="20">
@@ -15349,7 +15349,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -15397,17 +15397,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -15423,13 +15423,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -15445,7 +15445,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -15493,17 +15493,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>621</v>
+        <v>332</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>-521</v>
+        <v>-232</v>
       </c>
     </row>
     <row r="27">
@@ -15519,13 +15519,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>621</v>
+        <v>332</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>-521</v>
+        <v>-232</v>
       </c>
     </row>
     <row r="28">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -15589,7 +15589,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -15637,7 +15637,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -15685,7 +15685,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -15733,17 +15733,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>-30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -15759,13 +15759,13 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>-30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -15777,13 +15777,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>1892</v>
+        <v>1791</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>1683</v>
+        <v>1784</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/example_output.xlsx
+++ b/notebooks/example_output.xlsx
@@ -12,15 +12,13 @@
     <sheet name="January" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="February" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="March" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="April" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="May" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="June" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="July" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="August" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="September" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="October" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="November" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="December" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="May" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="June" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="July" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="August" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="September" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="November" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="December" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,30 +489,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Household Items</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Discover</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>General expense</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -523,222 +521,226 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Flights</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1000</v>
+        <v>464</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Checking</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>General expense</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>January</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1000</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Discover</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>General expense</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>January</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Housing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Streaming Services</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>January</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Savings</t>
+          <t>Dining</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Emergency Fund</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Monthly Contribution</t>
+          <t>General expense</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>January</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Medical Bills</t>
+          <t>Flights</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Clinic Visit</t>
+          <t>General expense</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>January</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>686</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>General expense</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -747,183 +749,183 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>145</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Housing</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>General expense</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>January</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>587</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>437</v>
+        <v>89</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>General expense</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>January</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>437</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Unexpected Expenses</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>499</v>
+        <v>136</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>General expense</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>January</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>834</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Unexpected Expenses</t>
+          <t>Household Items</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Discover</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>January</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Supermarket</t>
+          <t>Flights</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>284</v>
+        <v>180</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -933,69 +935,69 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>February</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>284</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unexpected Expenses</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>333</v>
+        <v>437</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>General expense</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>February</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>333</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Flights</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>305</v>
+        <v>439</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1009,17 +1011,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>769</v>
+        <v>857</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1033,11 +1035,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>332</v>
+        <v>32</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1047,35 +1049,35 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>February</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>332</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Public Transit</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>471</v>
+        <v>326</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1085,73 +1087,69 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>February</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1418</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Housing</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Unexpected Expenses</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>343</v>
+        <v>1000</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
+          <t>Checking</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>February</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>343</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Debt Payments</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Public Transit</t>
+          <t>Credit Card Payment</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>475</v>
+        <v>109</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1161,35 +1159,35 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>February</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1418</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>133</v>
+        <v>418</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1199,35 +1197,35 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>February</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>133</v>
+        <v>857</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Health Insurance</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1237,35 +1235,35 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>February</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>150</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Unexpected Expenses</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>358</v>
+        <v>206</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1275,40 +1273,40 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>February</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>621</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Medical Bills</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Discover</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>General expense</t>
+          <t>Shell</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1317,31 +1315,31 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>686</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Health Insurance</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>326</v>
+        <v>404</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1351,35 +1349,35 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>March</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>326</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Personal Care</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Supermarket</t>
+          <t>Haircuts</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1389,35 +1387,35 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>March</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>295</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Public Transit</t>
+          <t>Unexpected Expenses</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>472</v>
+        <v>407</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1427,73 +1425,73 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>March</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Unexpected Expenses</t>
+          <t>Streaming Services</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>General expense</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>March</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>621</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dining</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Medical Bills</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1503,35 +1501,35 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>March</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>101</v>
+        <v>686</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Medical Bills</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>199</v>
+        <v>365</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1541,35 +1539,35 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>March</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>335</v>
+        <v>686</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Household Items</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>136</v>
+        <v>407</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1579,35 +1577,35 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>March</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>335</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Dining</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>498</v>
+        <v>62</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1617,111 +1615,111 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>March</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>498</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-03-15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Savings</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Medical Bills</t>
+          <t>Emergency Fund</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Transfer</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>General expense</t>
+          <t>Monthly Contribution</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>March</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>328</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Debt Payments</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Credit Card Payment</t>
+          <t>Medical Bills</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>479</v>
+        <v>75</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>General expense</t>
+          <t>Clinic Visit</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>March</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>479</v>
+        <v>686</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Household Items</t>
+          <t>Medical Bills</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>404</v>
+        <v>96</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1731,35 +1729,35 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>March</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>404</v>
+        <v>686</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1773,31 +1771,31 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>752</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Gifts</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Public Transit</t>
+          <t>Birthday Gifts</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>433</v>
+        <v>191</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1807,31 +1805,31 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>433</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Gifts</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Birthday Gifts</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>395</v>
+        <v>66</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1849,31 +1847,31 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>752</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Streaming Services</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>329</v>
+        <v>163</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1883,35 +1881,35 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>May</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>329</v>
+        <v>752</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Supermarket</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>374</v>
+        <v>295</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1921,35 +1919,35 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>May</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>838</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Household Items</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>416</v>
+        <v>194</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1959,35 +1957,35 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>May</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>416</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Personal Care</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Haircuts</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2001,31 +1999,31 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>312</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Debt Payments</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Credit Card Payment</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>94</v>
+        <v>479</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2035,31 +2033,31 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>May</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>94</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gifts</t>
+          <t>Housing</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Birthday Gifts</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>191</v>
+        <v>355</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2077,31 +2075,31 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>257</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Household Items</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2111,35 +2109,35 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>May</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>407</v>
+        <v>752</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Unexpected Expenses</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2149,17 +2147,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>June</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>319</v>
+        <v>621</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2173,11 +2171,11 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>57</v>
+        <v>284</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2187,35 +2185,35 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>June</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>57</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dining</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2225,17 +2223,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>June</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>137</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2249,7 +2247,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2263,35 +2261,35 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>June</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>191</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Streaming Services</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>18</v>
+        <v>403</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2301,35 +2299,35 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>June</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>145</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Housing</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Streaming Services</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>403</v>
+        <v>56</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2343,27 +2341,27 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>403</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Flights</t>
+          <t>Unexpected Expenses</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2377,35 +2375,35 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>June</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>769</v>
+        <v>621</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Medical Bills</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>365</v>
+        <v>150</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2415,31 +2413,31 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>June</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>686</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Medical Bills</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>150</v>
+        <v>498</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2453,31 +2451,31 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>July</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>686</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Medical Bills</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2491,35 +2489,35 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>July</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>587</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Debt Payments</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Credit Card Payment</t>
+          <t>Streaming Services</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>159</v>
+        <v>329</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2529,31 +2527,31 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>July</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>159</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Unexpected Expenses</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>162</v>
+        <v>332</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2567,17 +2565,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>July</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>162</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2591,11 +2589,11 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2605,31 +2603,31 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>July</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>426</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Household Items</t>
+          <t>Medical Bills</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>232</v>
+        <v>375</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2643,35 +2641,35 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>August</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>232</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dining</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2681,35 +2679,35 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>August</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Housing</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Household Items</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2723,31 +2721,31 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>99</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Flights</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2757,17 +2755,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>August</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>206</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-11-23</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2781,11 +2779,11 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>496</v>
+        <v>259</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2795,31 +2793,31 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>August</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>496</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-08-02</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Medical Bills</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>375</v>
+        <v>36</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2837,31 +2835,31 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>375</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Flights</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2871,35 +2869,35 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>August</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>407</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Savings</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Flights</t>
+          <t>Emergency Fund</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2909,35 +2907,35 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>August</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>180</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Unexpected Expenses</t>
+          <t>Household Items</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2947,35 +2945,35 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>August</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>32</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Debt Payments</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Credit Card Payment</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2985,35 +2983,35 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>September</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>332</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Housing</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Flights</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3023,35 +3021,35 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>90</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Household Items</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3061,35 +3059,35 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>September</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>407</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Savings</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Emergency Fund</t>
+          <t>Supermarket</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3099,17 +3097,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>460</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3123,11 +3121,11 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3137,73 +3135,73 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>September</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>383</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Unexpected Expenses</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>General expense</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>September</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>838</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Gifts</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Birthday Gifts</t>
+          <t>Streaming Services</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3213,35 +3211,35 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>November</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>257</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Streaming Services</t>
+          <t>Public Transit</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>154</v>
+        <v>472</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3255,31 +3253,31 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>204</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Flights</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>355</v>
+        <v>23</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3289,35 +3287,35 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>November</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>355</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Gifts</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Supermarket</t>
+          <t>Birthday Gifts</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Debit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3327,35 +3325,35 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>November</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>304</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Apparel</t>
+          <t>Public Transit</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3365,35 +3363,35 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>November</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>857</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Debt Payments</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Credit Card Payment</t>
+          <t>Streaming Services</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3403,35 +3401,35 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>November</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>46</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Personal Care</t>
+          <t>Miscellaneous</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Haircuts</t>
+          <t>Unexpected Expenses</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>70</v>
+        <v>343</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3441,35 +3439,35 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>November</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>70</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-23</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Personal Care</t>
+          <t>Savings</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Haircuts</t>
+          <t>Emergency Fund</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>411</v>
+        <v>496</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Debit Card</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3479,35 +3477,35 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>411</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Miscellaneous</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Unexpected Expenses</t>
+          <t>Public Transit</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>335</v>
+        <v>475</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3517,35 +3515,35 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>834</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Supermarket</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>56</v>
+        <v>426</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3555,35 +3553,35 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>November</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>56</v>
+        <v>426</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Household Items</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>163</v>
+        <v>404</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3593,35 +3591,35 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>December</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>752</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Supermarket</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3631,657 +3629,11 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>December</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Health Insurance</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>404</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Credit Card</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2025-09-11</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Housing</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>287</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Bank Transfer</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Clothing</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Apparel</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>418</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Credit Card</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Miscellaneous</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Unexpected Expenses</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>407</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Bank Transfer</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>361</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2025-09-18</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Gifts</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Birthday Gifts</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>275</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Housing</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>348</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Debit Card</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2025-11-17</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Streaming Services</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>50</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Debit Card</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2025-08-27</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Savings</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Emergency Fund</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>201</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Bank Transfer</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>375</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Debt Payments</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Credit Card Payment</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>109</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Debit Card</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2025-11-10</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Flights</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>23</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Debit Card</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Health Insurance</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>89</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Debit Card</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2025-08-19</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>36</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Credit Card</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Clothing</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Apparel</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>340</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Debit Card</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Personal Care</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Haircuts</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>101</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Credit Card</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2025-08-24</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Flights</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>31</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Credit Card</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>General expense</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>90</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4348,17 +3700,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4374,13 +3726,13 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -4396,17 +3748,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -4422,13 +3774,13 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -4444,17 +3796,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
@@ -4470,13 +3822,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -4492,7 +3844,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -4540,7 +3892,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -4588,7 +3940,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -4636,17 +3988,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="15">
@@ -4662,13 +4014,13 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>75</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="16">
@@ -4684,17 +4036,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>300</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -4710,13 +4062,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>300</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -4732,17 +4084,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>-275</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -4758,13 +4110,13 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>-275</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -4780,17 +4132,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>-132</v>
       </c>
     </row>
     <row r="21">
@@ -4806,13 +4158,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>-132</v>
       </c>
     </row>
     <row r="22">
@@ -4828,17 +4180,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>162</v>
+        <v>287</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>838</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23">
@@ -4854,13 +4206,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>162</v>
+        <v>287</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>838</v>
+        <v>713</v>
       </c>
     </row>
     <row r="24">
@@ -4876,7 +4228,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -4924,17 +4276,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -4950,13 +4302,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -4972,7 +4324,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -5020,17 +4372,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
       <c r="F30" t="n">
-        <v>-260</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
@@ -5046,13 +4398,13 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
       <c r="F31" t="n">
-        <v>-260</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
@@ -5068,7 +4420,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -5116,17 +4468,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
       <c r="F34" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35">
@@ -5142,13 +4494,13 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
       <c r="F35" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36">
@@ -5164,7 +4516,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>September</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -5208,13 +4560,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>1316</v>
+        <v>1235</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>2259</v>
+        <v>2340</v>
       </c>
     </row>
   </sheetData>
@@ -5281,7 +4633,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -5329,7 +4681,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -5377,17 +4729,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>109</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
@@ -5403,13 +4755,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>109</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -5425,7 +4777,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -5473,7 +4825,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -5521,17 +4873,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="13">
@@ -5547,13 +4899,13 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="14">
@@ -5569,17 +4921,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>275</v>
+        <v>383</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>-200</v>
+        <v>-308</v>
       </c>
     </row>
     <row r="15">
@@ -5595,13 +4947,13 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>275</v>
+        <v>383</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>-200</v>
+        <v>-308</v>
       </c>
     </row>
     <row r="16">
@@ -5617,17 +4969,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>195</v>
+        <v>426</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>105</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="17">
@@ -5643,13 +4995,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>195</v>
+        <v>426</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>105</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="18">
@@ -5665,7 +5017,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -5713,17 +5065,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-132</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -5739,13 +5091,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>-132</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -5761,17 +5113,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>713</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -5787,13 +5139,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>713</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -5809,7 +5161,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -5857,17 +5209,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>45</v>
+        <v>-243</v>
       </c>
     </row>
     <row r="27">
@@ -5883,13 +5235,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>-243</v>
       </c>
     </row>
     <row r="28">
@@ -5905,7 +5257,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -5953,17 +5305,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>-296</v>
       </c>
     </row>
     <row r="31">
@@ -5979,13 +5331,13 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>-296</v>
       </c>
     </row>
     <row r="32">
@@ -6001,17 +5353,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1418</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
       <c r="F32" t="n">
-        <v>80</v>
+        <v>-1338</v>
       </c>
     </row>
     <row r="33">
@@ -6027,13 +5379,13 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1418</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
       <c r="F33" t="n">
-        <v>80</v>
+        <v>-1338</v>
       </c>
     </row>
     <row r="34">
@@ -6049,17 +5401,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
       <c r="F34" t="n">
-        <v>500</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35">
@@ -6075,13 +5427,13 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36">
@@ -6097,7 +5449,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>November</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -6141,13 +5493,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>1235</v>
+        <v>3293</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>2340</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6214,1872 +5566,6 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Clothing</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Apparel</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>319</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-219</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Clothing</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>319</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-219</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Debt Payments</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Credit Card Payment</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>159</v>
-      </c>
-      <c r="E6" t="n">
-        <v>300</v>
-      </c>
-      <c r="F6" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Debt Payments</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>159</v>
-      </c>
-      <c r="E7" t="n">
-        <v>300</v>
-      </c>
-      <c r="F7" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Dining</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Restaurants</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>137</v>
-      </c>
-      <c r="E8" t="n">
-        <v>150</v>
-      </c>
-      <c r="F8" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Dining</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>137</v>
-      </c>
-      <c r="E9" t="n">
-        <v>150</v>
-      </c>
-      <c r="F9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Books</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Streaming Services</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Gifts</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Birthday Gifts</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Gifts</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>75</v>
-      </c>
-      <c r="F15" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Supermarket</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>57</v>
-      </c>
-      <c r="E16" t="n">
-        <v>300</v>
-      </c>
-      <c r="F16" t="n">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>57</v>
-      </c>
-      <c r="E17" t="n">
-        <v>300</v>
-      </c>
-      <c r="F17" t="n">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Medical Bills</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Household Items</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>416</v>
-      </c>
-      <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-316</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>416</v>
-      </c>
-      <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-316</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Housing</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Housing</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Health Insurance</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>200</v>
-      </c>
-      <c r="F24" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>200</v>
-      </c>
-      <c r="F25" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Miscellaneous</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Unexpected Expenses</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>834</v>
-      </c>
-      <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-734</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Miscellaneous</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>834</v>
-      </c>
-      <c r="E27" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-734</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Personal Care</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Haircuts</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>411</v>
-      </c>
-      <c r="E28" t="n">
-        <v>50</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-361</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Personal Care</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
-        <v>411</v>
-      </c>
-      <c r="E29" t="n">
-        <v>50</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-361</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Savings</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Emergency Fund</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>200</v>
-      </c>
-      <c r="F30" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Savings</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>200</v>
-      </c>
-      <c r="F31" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Public Transit</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>80</v>
-      </c>
-      <c r="F32" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>80</v>
-      </c>
-      <c r="F33" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Flights</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>500</v>
-      </c>
-      <c r="F34" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>500</v>
-      </c>
-      <c r="F35" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>120</v>
-      </c>
-      <c r="F36" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>120</v>
-      </c>
-      <c r="F37" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
-        <v>2333</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>subcategory</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_amount_spent</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount_budgeted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Clothing</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Apparel</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Clothing</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Debt Payments</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Credit Card Payment</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>300</v>
-      </c>
-      <c r="F6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Debt Payments</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>300</v>
-      </c>
-      <c r="F7" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Dining</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Restaurants</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>150</v>
-      </c>
-      <c r="F8" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Dining</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>150</v>
-      </c>
-      <c r="F9" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Books</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Streaming Services</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>204</v>
-      </c>
-      <c r="E12" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>204</v>
-      </c>
-      <c r="E13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Gifts</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Birthday Gifts</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>383</v>
-      </c>
-      <c r="E14" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-308</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Gifts</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>383</v>
-      </c>
-      <c r="E15" t="n">
-        <v>75</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-308</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Supermarket</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>426</v>
-      </c>
-      <c r="E16" t="n">
-        <v>300</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-126</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>426</v>
-      </c>
-      <c r="E17" t="n">
-        <v>300</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-126</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Medical Bills</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Household Items</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Housing</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Housing</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Health Insurance</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>200</v>
-      </c>
-      <c r="F24" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>200</v>
-      </c>
-      <c r="F25" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Miscellaneous</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Unexpected Expenses</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>343</v>
-      </c>
-      <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-243</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Miscellaneous</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>343</v>
-      </c>
-      <c r="E27" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-243</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Personal Care</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Haircuts</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>50</v>
-      </c>
-      <c r="F28" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Personal Care</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>50</v>
-      </c>
-      <c r="F29" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Savings</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Emergency Fund</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>496</v>
-      </c>
-      <c r="E30" t="n">
-        <v>200</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-296</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Savings</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
-        <v>496</v>
-      </c>
-      <c r="E31" t="n">
-        <v>200</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-296</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Public Transit</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>1418</v>
-      </c>
-      <c r="E32" t="n">
-        <v>80</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-1338</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Transportation</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
-        <v>1418</v>
-      </c>
-      <c r="E33" t="n">
-        <v>80</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-1338</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Flights</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>23</v>
-      </c>
-      <c r="E34" t="n">
-        <v>500</v>
-      </c>
-      <c r="F34" t="n">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
-        <v>23</v>
-      </c>
-      <c r="E35" t="n">
-        <v>500</v>
-      </c>
-      <c r="F35" t="n">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>120</v>
-      </c>
-      <c r="F36" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>120</v>
-      </c>
-      <c r="F37" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
-        <v>3293</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F38" t="n">
-        <v>282</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>subcategory</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_amount_spent</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount_budgeted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>December</t>
         </is>
       </c>
@@ -12118,17 +9604,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>-487</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12144,13 +9630,13 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>-487</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -12166,17 +9652,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>-240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -12192,13 +9678,13 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>-240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -12214,17 +9700,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="7">
@@ -12240,13 +9726,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="8">
@@ -12262,7 +9748,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -12310,17 +9796,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>407</v>
+        <v>312</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>-357</v>
+        <v>-262</v>
       </c>
     </row>
     <row r="11">
@@ -12336,13 +9822,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>407</v>
+        <v>312</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>-357</v>
+        <v>-262</v>
       </c>
     </row>
     <row r="12">
@@ -12358,7 +9844,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -12406,17 +9892,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="15">
@@ -12432,13 +9918,13 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>75</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="16">
@@ -12454,17 +9940,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -12480,13 +9966,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -12502,7 +9988,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -12550,7 +10036,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -12598,17 +10084,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23">
@@ -12624,13 +10110,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24">
@@ -12646,7 +10132,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -12694,17 +10180,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>-233</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -12720,13 +10206,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>-233</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -12742,17 +10228,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="29">
@@ -12768,13 +10254,13 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="30">
@@ -12790,7 +10276,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -12838,17 +10324,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
       <c r="F32" t="n">
-        <v>-353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -12864,13 +10350,13 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
       <c r="F33" t="n">
-        <v>-353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -12886,7 +10372,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -12934,17 +10420,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>120</v>
+        <v>-632</v>
       </c>
     </row>
     <row r="37">
@@ -12960,13 +10446,13 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>120</v>
+        <v>-632</v>
       </c>
     </row>
     <row r="38">
@@ -12978,13 +10464,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>2448</v>
+        <v>2520</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>1127</v>
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
@@ -13051,7 +10537,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -13099,7 +10585,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -13147,17 +10633,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>479</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>-179</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7">
@@ -13173,13 +10659,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>479</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>-179</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
@@ -13195,7 +10681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -13243,17 +10729,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>-262</v>
+        <v>-282</v>
       </c>
     </row>
     <row r="11">
@@ -13269,13 +10755,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>-262</v>
+        <v>-282</v>
       </c>
     </row>
     <row r="12">
@@ -13291,17 +10777,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>-353</v>
       </c>
     </row>
     <row r="13">
@@ -13317,13 +10803,13 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>-353</v>
       </c>
     </row>
     <row r="14">
@@ -13339,17 +10825,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>-182</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -13365,13 +10851,13 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>-182</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -13387,17 +10873,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -13413,13 +10899,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -13435,7 +10921,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -13483,7 +10969,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -13531,17 +11017,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>355</v>
+        <v>56</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>645</v>
+        <v>944</v>
       </c>
     </row>
     <row r="23">
@@ -13557,13 +11043,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>355</v>
+        <v>56</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>645</v>
+        <v>944</v>
       </c>
     </row>
     <row r="24">
@@ -13579,7 +11065,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -13627,17 +11113,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>-521</v>
       </c>
     </row>
     <row r="27">
@@ -13653,13 +11139,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>-521</v>
       </c>
     </row>
     <row r="28">
@@ -13675,17 +11161,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>-20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -13701,13 +11187,13 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>-20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -13723,7 +11209,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -13771,7 +11257,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -13819,7 +11305,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -13867,17 +11353,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>752</v>
+        <v>150</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>-632</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="37">
@@ -13893,13 +11379,13 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>752</v>
+        <v>150</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>-632</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="38">
@@ -13911,13 +11397,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>2520</v>
+        <v>1892</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>1055</v>
+        <v>1683</v>
       </c>
     </row>
   </sheetData>
@@ -13984,7 +11470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -14032,7 +11518,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -14080,17 +11566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>254</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
@@ -14106,13 +11592,13 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>254</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -14128,7 +11614,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -14176,17 +11662,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>332</v>
+        <v>498</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>-282</v>
+        <v>-448</v>
       </c>
     </row>
     <row r="11">
@@ -14202,13 +11688,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>332</v>
+        <v>498</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>-282</v>
+        <v>-448</v>
       </c>
     </row>
     <row r="12">
@@ -14224,17 +11710,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>-353</v>
+        <v>-279</v>
       </c>
     </row>
     <row r="13">
@@ -14250,13 +11736,13 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>-353</v>
+        <v>-279</v>
       </c>
     </row>
     <row r="14">
@@ -14272,7 +11758,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -14320,17 +11806,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="17">
@@ -14346,13 +11832,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="18">
@@ -14368,17 +11854,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>-228</v>
       </c>
     </row>
     <row r="19">
@@ -14394,13 +11880,13 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>-228</v>
       </c>
     </row>
     <row r="20">
@@ -14416,7 +11902,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -14464,17 +11950,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -14490,13 +11976,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -14512,7 +11998,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -14560,17 +12046,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>621</v>
+        <v>332</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>-521</v>
+        <v>-232</v>
       </c>
     </row>
     <row r="27">
@@ -14586,13 +12072,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>621</v>
+        <v>332</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>-521</v>
+        <v>-232</v>
       </c>
     </row>
     <row r="28">
@@ -14608,7 +12094,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -14656,7 +12142,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -14704,7 +12190,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -14752,7 +12238,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -14800,17 +12286,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>-30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -14826,13 +12312,13 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>-30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -14844,13 +12330,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>1892</v>
+        <v>1791</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>1683</v>
+        <v>1784</v>
       </c>
     </row>
   </sheetData>
@@ -14917,17 +12403,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -14943,13 +12429,13 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -14965,17 +12451,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -14991,13 +12477,13 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -15013,7 +12499,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -15061,7 +12547,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -15109,17 +12595,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>-448</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -15135,13 +12621,13 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>-448</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -15157,17 +12643,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>-279</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -15183,13 +12669,13 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>-279</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -15205,7 +12691,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -15253,17 +12739,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
       <c r="F16" t="n">
-        <v>-4</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17">
@@ -15279,13 +12765,13 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
       <c r="F17" t="n">
-        <v>-4</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -15301,17 +12787,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>-228</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="19">
@@ -15327,13 +12813,13 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="E19" t="n">
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>-228</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="20">
@@ -15349,17 +12835,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -15375,13 +12861,13 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E21" t="n">
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -15397,17 +12883,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23">
@@ -15423,13 +12909,13 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>838</v>
       </c>
     </row>
     <row r="24">
@@ -15445,7 +12931,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -15493,17 +12979,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>-232</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -15519,13 +13005,13 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>-232</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -15541,7 +13027,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -15589,17 +13075,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="31">
@@ -15615,13 +13101,13 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="32">
@@ -15637,7 +13123,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -15685,17 +13171,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
       <c r="F34" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35">
@@ -15711,13 +13197,13 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36">
@@ -15733,7 +13219,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -15777,13 +13263,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>1791</v>
+        <v>1316</v>
       </c>
       <c r="E38" t="n">
         <v>3575</v>
       </c>
       <c r="F38" t="n">
-        <v>1784</v>
+        <v>2259</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/example_output.xlsx
+++ b/notebooks/example_output.xlsx
@@ -3647,7 +3647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3668,20 +3668,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>total_amount_spent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total_amount_spent</t>
+          <t>amount_budgeted</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount_budgeted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
@@ -3698,18 +3693,13 @@
           <t>Gas</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3724,14 +3714,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3746,18 +3735,13 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3772,14 +3756,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3794,18 +3777,13 @@
           <t>Credit Card Payment</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C6" t="n">
+        <v>191</v>
       </c>
       <c r="D6" t="n">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="E6" t="n">
-        <v>300</v>
-      </c>
-      <c r="F6" t="n">
         <v>109</v>
       </c>
     </row>
@@ -3820,14 +3798,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>191</v>
+      </c>
       <c r="D7" t="n">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="E7" t="n">
-        <v>300</v>
-      </c>
-      <c r="F7" t="n">
         <v>109</v>
       </c>
     </row>
@@ -3842,20 +3819,15 @@
           <t>Restaurants</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
-      <c r="F8" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3868,16 +3840,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
-      <c r="F9" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3890,20 +3861,15 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
-      <c r="F10" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3916,16 +3882,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3938,20 +3903,15 @@
           <t>Streaming Services</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
-      <c r="F12" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3964,16 +3924,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
-      <c r="F13" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3986,18 +3945,13 @@
           <t>Birthday Gifts</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C14" t="n">
+        <v>275</v>
       </c>
       <c r="D14" t="n">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" t="n">
         <v>-200</v>
       </c>
     </row>
@@ -4012,14 +3966,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>275</v>
+      </c>
       <c r="D15" t="n">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
-      </c>
-      <c r="F15" t="n">
         <v>-200</v>
       </c>
     </row>
@@ -4034,18 +3987,13 @@
           <t>Supermarket</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C16" t="n">
+        <v>195</v>
       </c>
       <c r="D16" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
-        <v>300</v>
-      </c>
-      <c r="F16" t="n">
         <v>105</v>
       </c>
     </row>
@@ -4060,14 +4008,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>195</v>
+      </c>
       <c r="D17" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="E17" t="n">
-        <v>300</v>
-      </c>
-      <c r="F17" t="n">
         <v>105</v>
       </c>
     </row>
@@ -4082,18 +4029,13 @@
           <t>Medical Bills</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4108,14 +4050,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4130,18 +4071,13 @@
           <t>Household Items</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C20" t="n">
+        <v>232</v>
       </c>
       <c r="D20" t="n">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
         <v>-132</v>
       </c>
     </row>
@@ -4156,14 +4092,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>232</v>
+      </c>
       <c r="D21" t="n">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
         <v>-132</v>
       </c>
     </row>
@@ -4178,18 +4113,13 @@
           <t>Rent</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C22" t="n">
+        <v>287</v>
       </c>
       <c r="D22" t="n">
-        <v>287</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F22" t="n">
         <v>713</v>
       </c>
     </row>
@@ -4204,14 +4134,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>287</v>
+      </c>
       <c r="D23" t="n">
-        <v>287</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F23" t="n">
         <v>713</v>
       </c>
     </row>
@@ -4226,20 +4155,15 @@
           <t>Health Insurance</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
       </c>
-      <c r="F24" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4252,16 +4176,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
-      <c r="F25" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4274,18 +4197,13 @@
           <t>Unexpected Expenses</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C26" t="n">
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
         <v>45</v>
       </c>
     </row>
@@ -4300,14 +4218,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>55</v>
+      </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" t="n">
         <v>45</v>
       </c>
     </row>
@@ -4322,20 +4239,15 @@
           <t>Haircuts</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
-      <c r="F28" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4348,16 +4260,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
-      <c r="F29" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4370,20 +4281,15 @@
           <t>Emergency Fund</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
-      <c r="F30" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4396,16 +4302,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
-      <c r="F31" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4418,20 +4323,15 @@
           <t>Public Transit</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
-      <c r="F32" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4444,16 +4344,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
-      <c r="F33" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4466,20 +4365,15 @@
           <t>Flights</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C34" t="n">
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
-      <c r="F34" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4492,16 +4386,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
-      <c r="F35" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4514,20 +4407,15 @@
           <t>Electricity</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
+      <c r="C36" t="n">
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
-      <c r="F36" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4540,16 +4428,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
-      <c r="F37" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4558,14 +4445,13 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>1235</v>
+      </c>
       <c r="D38" t="n">
-        <v>1235</v>
+        <v>3575</v>
       </c>
       <c r="E38" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F38" t="n">
         <v>2340</v>
       </c>
     </row>
@@ -4580,7 +4466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4601,20 +4487,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>total_amount_spent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total_amount_spent</t>
+          <t>amount_budgeted</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount_budgeted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
@@ -4631,18 +4512,13 @@
           <t>Gas</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4657,14 +4533,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4679,18 +4554,13 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4705,14 +4575,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4727,20 +4596,15 @@
           <t>Credit Card Payment</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
-      <c r="F6" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4753,16 +4617,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
-      <c r="F7" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4775,20 +4638,15 @@
           <t>Restaurants</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
-      <c r="F8" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4801,16 +4659,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
-      <c r="F9" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4823,20 +4680,15 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
-      <c r="F10" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4849,16 +4701,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4871,18 +4722,13 @@
           <t>Streaming Services</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C12" t="n">
+        <v>204</v>
       </c>
       <c r="D12" t="n">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" t="n">
         <v>-154</v>
       </c>
     </row>
@@ -4897,14 +4743,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>204</v>
+      </c>
       <c r="D13" t="n">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" t="n">
         <v>-154</v>
       </c>
     </row>
@@ -4919,18 +4764,13 @@
           <t>Birthday Gifts</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C14" t="n">
+        <v>383</v>
       </c>
       <c r="D14" t="n">
-        <v>383</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" t="n">
         <v>-308</v>
       </c>
     </row>
@@ -4945,14 +4785,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>383</v>
+      </c>
       <c r="D15" t="n">
-        <v>383</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
-      </c>
-      <c r="F15" t="n">
         <v>-308</v>
       </c>
     </row>
@@ -4967,18 +4806,13 @@
           <t>Supermarket</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C16" t="n">
+        <v>426</v>
       </c>
       <c r="D16" t="n">
-        <v>426</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
-        <v>300</v>
-      </c>
-      <c r="F16" t="n">
         <v>-126</v>
       </c>
     </row>
@@ -4993,14 +4827,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>426</v>
+      </c>
       <c r="D17" t="n">
-        <v>426</v>
+        <v>300</v>
       </c>
       <c r="E17" t="n">
-        <v>300</v>
-      </c>
-      <c r="F17" t="n">
         <v>-126</v>
       </c>
     </row>
@@ -5015,18 +4848,13 @@
           <t>Medical Bills</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5041,14 +4869,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5063,18 +4890,13 @@
           <t>Household Items</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5089,14 +4911,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5111,20 +4932,15 @@
           <t>Rent</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
-      <c r="F22" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5137,16 +4953,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
-      <c r="F23" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5159,20 +4974,15 @@
           <t>Health Insurance</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
       </c>
-      <c r="F24" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5185,16 +4995,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
-      <c r="F25" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5207,18 +5016,13 @@
           <t>Unexpected Expenses</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C26" t="n">
+        <v>343</v>
       </c>
       <c r="D26" t="n">
-        <v>343</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
         <v>-243</v>
       </c>
     </row>
@@ -5233,14 +5037,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>343</v>
+      </c>
       <c r="D27" t="n">
-        <v>343</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" t="n">
         <v>-243</v>
       </c>
     </row>
@@ -5255,20 +5058,15 @@
           <t>Haircuts</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
-      <c r="F28" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5281,16 +5079,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
-      <c r="F29" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5303,18 +5100,13 @@
           <t>Emergency Fund</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C30" t="n">
+        <v>496</v>
       </c>
       <c r="D30" t="n">
-        <v>496</v>
+        <v>200</v>
       </c>
       <c r="E30" t="n">
-        <v>200</v>
-      </c>
-      <c r="F30" t="n">
         <v>-296</v>
       </c>
     </row>
@@ -5329,14 +5121,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>496</v>
+      </c>
       <c r="D31" t="n">
-        <v>496</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
-        <v>200</v>
-      </c>
-      <c r="F31" t="n">
         <v>-296</v>
       </c>
     </row>
@@ -5351,18 +5142,13 @@
           <t>Public Transit</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C32" t="n">
+        <v>1418</v>
       </c>
       <c r="D32" t="n">
-        <v>1418</v>
+        <v>80</v>
       </c>
       <c r="E32" t="n">
-        <v>80</v>
-      </c>
-      <c r="F32" t="n">
         <v>-1338</v>
       </c>
     </row>
@@ -5377,14 +5163,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>1418</v>
+      </c>
       <c r="D33" t="n">
-        <v>1418</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
-        <v>80</v>
-      </c>
-      <c r="F33" t="n">
         <v>-1338</v>
       </c>
     </row>
@@ -5399,18 +5184,13 @@
           <t>Flights</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C34" t="n">
+        <v>23</v>
       </c>
       <c r="D34" t="n">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="E34" t="n">
-        <v>500</v>
-      </c>
-      <c r="F34" t="n">
         <v>477</v>
       </c>
     </row>
@@ -5425,14 +5205,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>23</v>
+      </c>
       <c r="D35" t="n">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="E35" t="n">
-        <v>500</v>
-      </c>
-      <c r="F35" t="n">
         <v>477</v>
       </c>
     </row>
@@ -5447,20 +5226,15 @@
           <t>Electricity</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
+      <c r="C36" t="n">
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
-      <c r="F36" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5473,16 +5247,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
-      <c r="F37" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5491,14 +5264,13 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>3293</v>
+      </c>
       <c r="D38" t="n">
-        <v>3293</v>
+        <v>3575</v>
       </c>
       <c r="E38" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F38" t="n">
         <v>282</v>
       </c>
     </row>
@@ -5513,7 +5285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5534,20 +5306,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>total_amount_spent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total_amount_spent</t>
+          <t>amount_budgeted</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount_budgeted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
@@ -5564,18 +5331,13 @@
           <t>Gas</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5590,14 +5352,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5612,18 +5373,13 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5638,14 +5394,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5660,20 +5415,15 @@
           <t>Credit Card Payment</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
-      <c r="F6" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5686,16 +5436,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
-      <c r="F7" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5708,20 +5457,15 @@
           <t>Restaurants</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
-      <c r="F8" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5734,16 +5478,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
-      <c r="F9" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5756,18 +5499,13 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C10" t="n">
+        <v>133</v>
       </c>
       <c r="D10" t="n">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
         <v>-83</v>
       </c>
     </row>
@@ -5782,14 +5520,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" t="n">
         <v>-83</v>
       </c>
     </row>
@@ -5804,20 +5541,15 @@
           <t>Streaming Services</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
-      <c r="F12" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5830,16 +5562,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
-      <c r="F13" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5852,20 +5583,15 @@
           <t>Birthday Gifts</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
-      <c r="F14" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5878,16 +5604,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
-      <c r="F15" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5900,20 +5625,15 @@
           <t>Supermarket</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
-      <c r="F16" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5926,16 +5646,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
-      <c r="F17" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5948,18 +5667,13 @@
           <t>Medical Bills</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5974,14 +5688,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5996,18 +5709,13 @@
           <t>Household Items</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C20" t="n">
+        <v>404</v>
       </c>
       <c r="D20" t="n">
-        <v>404</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
         <v>-304</v>
       </c>
     </row>
@@ -6022,14 +5730,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>404</v>
+      </c>
       <c r="D21" t="n">
-        <v>404</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
         <v>-304</v>
       </c>
     </row>
@@ -6044,20 +5751,15 @@
           <t>Rent</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
-      <c r="F22" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6070,16 +5772,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
-      <c r="F23" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6092,20 +5793,15 @@
           <t>Health Insurance</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
       </c>
-      <c r="F24" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6118,16 +5814,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
-      <c r="F25" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6140,18 +5835,13 @@
           <t>Unexpected Expenses</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6166,14 +5856,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6188,20 +5877,15 @@
           <t>Haircuts</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
-      <c r="F28" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6214,16 +5898,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
-      <c r="F29" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6236,20 +5919,15 @@
           <t>Emergency Fund</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
-      <c r="F30" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6262,16 +5940,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
-      <c r="F31" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6284,20 +5961,15 @@
           <t>Public Transit</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
-      <c r="F32" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6310,16 +5982,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
-      <c r="F33" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6332,20 +6003,15 @@
           <t>Flights</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C34" t="n">
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
-      <c r="F34" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6358,16 +6024,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
-      <c r="F35" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6380,20 +6045,15 @@
           <t>Electricity</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
+      <c r="C36" t="n">
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
-      <c r="F36" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6406,16 +6066,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
-      <c r="F37" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6424,14 +6083,13 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>537</v>
+      </c>
       <c r="D38" t="n">
-        <v>537</v>
+        <v>3575</v>
       </c>
       <c r="E38" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F38" t="n">
         <v>3038</v>
       </c>
     </row>
@@ -6752,7 +6410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6773,20 +6431,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>total_amount_spent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total_amount_spent</t>
+          <t>amount_budgeted</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount_budgeted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
@@ -6803,18 +6456,13 @@
           <t>Gas</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C2" t="n">
+        <v>335</v>
       </c>
       <c r="D2" t="n">
-        <v>335</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
         <v>-235</v>
       </c>
     </row>
@@ -6829,14 +6477,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>335</v>
+      </c>
       <c r="D3" t="n">
-        <v>335</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
         <v>-235</v>
       </c>
     </row>
@@ -6851,18 +6498,13 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6877,14 +6519,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6899,20 +6540,15 @@
           <t>Credit Card Payment</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
-      <c r="F6" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6925,16 +6561,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
-      <c r="F7" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6947,18 +6582,13 @@
           <t>Restaurants</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C8" t="n">
+        <v>101</v>
       </c>
       <c r="D8" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
-        <v>150</v>
-      </c>
-      <c r="F8" t="n">
         <v>49</v>
       </c>
     </row>
@@ -6973,14 +6603,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
-        <v>150</v>
-      </c>
-      <c r="F9" t="n">
         <v>49</v>
       </c>
     </row>
@@ -6995,20 +6624,15 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
-      <c r="F10" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7021,16 +6645,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7043,20 +6666,15 @@
           <t>Streaming Services</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
-      <c r="F12" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7069,16 +6687,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
-      <c r="F13" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7091,20 +6708,15 @@
           <t>Birthday Gifts</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
-      <c r="F14" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7117,16 +6729,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
-      <c r="F15" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7139,20 +6750,15 @@
           <t>Supermarket</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
-      <c r="F16" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7165,16 +6771,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
-      <c r="F17" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7187,18 +6792,13 @@
           <t>Medical Bills</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7213,14 +6813,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7235,18 +6834,13 @@
           <t>Household Items</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C20" t="n">
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
         <v>90</v>
       </c>
     </row>
@@ -7261,14 +6855,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
         <v>90</v>
       </c>
     </row>
@@ -7283,18 +6876,13 @@
           <t>Rent</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C22" t="n">
+        <v>145</v>
       </c>
       <c r="D22" t="n">
-        <v>145</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F22" t="n">
         <v>855</v>
       </c>
     </row>
@@ -7309,14 +6897,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>145</v>
+      </c>
       <c r="D23" t="n">
-        <v>145</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F23" t="n">
         <v>855</v>
       </c>
     </row>
@@ -7331,20 +6918,15 @@
           <t>Health Insurance</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
       </c>
-      <c r="F24" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7357,16 +6939,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
-      <c r="F25" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7379,18 +6960,13 @@
           <t>Unexpected Expenses</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7405,14 +6981,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7427,20 +7002,15 @@
           <t>Haircuts</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
-      <c r="F28" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7453,16 +7023,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
-      <c r="F29" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7475,20 +7044,15 @@
           <t>Emergency Fund</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
-      <c r="F30" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7501,16 +7065,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
-      <c r="F31" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7523,20 +7086,15 @@
           <t>Public Transit</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
-      <c r="F32" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7549,16 +7107,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
-      <c r="F33" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7571,18 +7128,13 @@
           <t>Flights</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C34" t="n">
+        <v>769</v>
       </c>
       <c r="D34" t="n">
-        <v>769</v>
+        <v>500</v>
       </c>
       <c r="E34" t="n">
-        <v>500</v>
-      </c>
-      <c r="F34" t="n">
         <v>-269</v>
       </c>
     </row>
@@ -7597,14 +7149,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>769</v>
+      </c>
       <c r="D35" t="n">
-        <v>769</v>
+        <v>500</v>
       </c>
       <c r="E35" t="n">
-        <v>500</v>
-      </c>
-      <c r="F35" t="n">
         <v>-269</v>
       </c>
     </row>
@@ -7619,18 +7170,13 @@
           <t>Electricity</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
+      <c r="C36" t="n">
+        <v>838</v>
       </c>
       <c r="D36" t="n">
-        <v>838</v>
+        <v>120</v>
       </c>
       <c r="E36" t="n">
-        <v>120</v>
-      </c>
-      <c r="F36" t="n">
         <v>-718</v>
       </c>
     </row>
@@ -7645,14 +7191,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>838</v>
+      </c>
       <c r="D37" t="n">
-        <v>838</v>
+        <v>120</v>
       </c>
       <c r="E37" t="n">
-        <v>120</v>
-      </c>
-      <c r="F37" t="n">
         <v>-718</v>
       </c>
     </row>
@@ -7663,14 +7208,13 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>2198</v>
+      </c>
       <c r="D38" t="n">
-        <v>2198</v>
+        <v>3575</v>
       </c>
       <c r="E38" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F38" t="n">
         <v>1377</v>
       </c>
     </row>
@@ -7685,7 +7229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7706,20 +7250,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>total_amount_spent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total_amount_spent</t>
+          <t>amount_budgeted</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount_budgeted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
@@ -7736,18 +7275,13 @@
           <t>Gas</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C2" t="n">
+        <v>326</v>
       </c>
       <c r="D2" t="n">
-        <v>326</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
         <v>-226</v>
       </c>
     </row>
@@ -7762,14 +7296,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>326</v>
+      </c>
       <c r="D3" t="n">
-        <v>326</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
         <v>-226</v>
       </c>
     </row>
@@ -7784,18 +7317,13 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C4" t="n">
+        <v>857</v>
       </c>
       <c r="D4" t="n">
-        <v>857</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
         <v>-757</v>
       </c>
     </row>
@@ -7810,14 +7338,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>857</v>
+      </c>
       <c r="D5" t="n">
-        <v>857</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
         <v>-757</v>
       </c>
     </row>
@@ -7832,18 +7359,13 @@
           <t>Credit Card Payment</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C6" t="n">
+        <v>109</v>
       </c>
       <c r="D6" t="n">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="E6" t="n">
-        <v>300</v>
-      </c>
-      <c r="F6" t="n">
         <v>191</v>
       </c>
     </row>
@@ -7858,14 +7380,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>109</v>
+      </c>
       <c r="D7" t="n">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="E7" t="n">
-        <v>300</v>
-      </c>
-      <c r="F7" t="n">
         <v>191</v>
       </c>
     </row>
@@ -7880,20 +7401,15 @@
           <t>Restaurants</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
-      <c r="F8" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7906,16 +7422,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
-      <c r="F9" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7928,18 +7443,13 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C10" t="n">
+        <v>437</v>
       </c>
       <c r="D10" t="n">
-        <v>437</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
         <v>-387</v>
       </c>
     </row>
@@ -7954,14 +7464,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>437</v>
+      </c>
       <c r="D11" t="n">
-        <v>437</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" t="n">
         <v>-387</v>
       </c>
     </row>
@@ -7976,20 +7485,15 @@
           <t>Streaming Services</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
-      <c r="F12" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8002,16 +7506,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
-      <c r="F13" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8024,20 +7527,15 @@
           <t>Birthday Gifts</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
-      <c r="F14" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8050,16 +7548,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
-      <c r="F15" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8072,20 +7569,15 @@
           <t>Supermarket</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
-      <c r="F16" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8098,16 +7590,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
-      <c r="F17" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8120,18 +7611,13 @@
           <t>Medical Bills</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8146,14 +7632,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8168,18 +7653,13 @@
           <t>Household Items</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8194,14 +7674,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8216,18 +7695,13 @@
           <t>Rent</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C22" t="n">
+        <v>1000</v>
       </c>
       <c r="D22" t="n">
         <v>1000</v>
       </c>
       <c r="E22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8242,14 +7716,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1000</v>
+      </c>
       <c r="D23" t="n">
         <v>1000</v>
       </c>
       <c r="E23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8264,18 +7737,13 @@
           <t>Health Insurance</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C24" t="n">
+        <v>89</v>
       </c>
       <c r="D24" t="n">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
-        <v>200</v>
-      </c>
-      <c r="F24" t="n">
         <v>111</v>
       </c>
     </row>
@@ -8290,14 +7758,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>89</v>
+      </c>
       <c r="D25" t="n">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
-        <v>200</v>
-      </c>
-      <c r="F25" t="n">
         <v>111</v>
       </c>
     </row>
@@ -8312,18 +7779,13 @@
           <t>Unexpected Expenses</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C26" t="n">
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
         <v>68</v>
       </c>
     </row>
@@ -8338,14 +7800,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>32</v>
+      </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" t="n">
         <v>68</v>
       </c>
     </row>
@@ -8360,20 +7821,15 @@
           <t>Haircuts</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
-      <c r="F28" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8386,16 +7842,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
-      <c r="F29" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8408,20 +7863,15 @@
           <t>Emergency Fund</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
-      <c r="F30" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8434,16 +7884,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
-      <c r="F31" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8456,20 +7905,15 @@
           <t>Public Transit</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
-      <c r="F32" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8482,16 +7926,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
-      <c r="F33" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8504,18 +7947,13 @@
           <t>Flights</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C34" t="n">
+        <v>180</v>
       </c>
       <c r="D34" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E34" t="n">
-        <v>500</v>
-      </c>
-      <c r="F34" t="n">
         <v>320</v>
       </c>
     </row>
@@ -8530,14 +7968,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>180</v>
+      </c>
       <c r="D35" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E35" t="n">
-        <v>500</v>
-      </c>
-      <c r="F35" t="n">
         <v>320</v>
       </c>
     </row>
@@ -8552,18 +7989,13 @@
           <t>Electricity</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
+      <c r="C36" t="n">
+        <v>206</v>
       </c>
       <c r="D36" t="n">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="E36" t="n">
-        <v>120</v>
-      </c>
-      <c r="F36" t="n">
         <v>-86</v>
       </c>
     </row>
@@ -8578,14 +8010,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>206</v>
+      </c>
       <c r="D37" t="n">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="E37" t="n">
-        <v>120</v>
-      </c>
-      <c r="F37" t="n">
         <v>-86</v>
       </c>
     </row>
@@ -8596,14 +8027,13 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>3236</v>
+      </c>
       <c r="D38" t="n">
-        <v>3236</v>
+        <v>3575</v>
       </c>
       <c r="E38" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F38" t="n">
         <v>339</v>
       </c>
     </row>
@@ -8618,7 +8048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8639,20 +8069,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>total_amount_spent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total_amount_spent</t>
+          <t>amount_budgeted</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount_budgeted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
@@ -8669,18 +8094,13 @@
           <t>Gas</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C2" t="n">
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
         <v>80</v>
       </c>
     </row>
@@ -8695,14 +8115,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
         <v>80</v>
       </c>
     </row>
@@ -8717,18 +8136,13 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8743,14 +8157,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8765,20 +8178,15 @@
           <t>Credit Card Payment</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
-      <c r="F6" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8791,16 +8199,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
-      <c r="F7" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8813,18 +8220,13 @@
           <t>Restaurants</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C8" t="n">
+        <v>62</v>
       </c>
       <c r="D8" t="n">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
-        <v>150</v>
-      </c>
-      <c r="F8" t="n">
         <v>88</v>
       </c>
     </row>
@@ -8839,14 +8241,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>62</v>
+      </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
-        <v>150</v>
-      </c>
-      <c r="F9" t="n">
         <v>88</v>
       </c>
     </row>
@@ -8861,20 +8262,15 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
-      <c r="F10" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8887,16 +8283,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8909,18 +8304,13 @@
           <t>Streaming Services</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C12" t="n">
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" t="n">
         <v>35</v>
       </c>
     </row>
@@ -8935,14 +8325,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" t="n">
         <v>35</v>
       </c>
     </row>
@@ -8957,20 +8346,15 @@
           <t>Birthday Gifts</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
-      <c r="F14" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8983,16 +8367,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
-      <c r="F15" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9005,20 +8388,15 @@
           <t>Supermarket</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
-      <c r="F16" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9031,16 +8409,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
-      <c r="F17" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9053,18 +8430,13 @@
           <t>Medical Bills</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C18" t="n">
+        <v>686</v>
       </c>
       <c r="D18" t="n">
-        <v>686</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
         <v>-586</v>
       </c>
     </row>
@@ -9079,14 +8451,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>686</v>
+      </c>
       <c r="D19" t="n">
-        <v>686</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
         <v>-586</v>
       </c>
     </row>
@@ -9101,18 +8472,13 @@
           <t>Household Items</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C20" t="n">
+        <v>407</v>
       </c>
       <c r="D20" t="n">
-        <v>407</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
         <v>-307</v>
       </c>
     </row>
@@ -9127,14 +8493,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>407</v>
+      </c>
       <c r="D21" t="n">
-        <v>407</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
         <v>-307</v>
       </c>
     </row>
@@ -9149,20 +8514,15 @@
           <t>Rent</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
-      <c r="F22" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9175,16 +8535,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
-      <c r="F23" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9197,18 +8556,13 @@
           <t>Health Insurance</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C24" t="n">
+        <v>404</v>
       </c>
       <c r="D24" t="n">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
-        <v>200</v>
-      </c>
-      <c r="F24" t="n">
         <v>-204</v>
       </c>
     </row>
@@ -9223,14 +8577,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>404</v>
+      </c>
       <c r="D25" t="n">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
-        <v>200</v>
-      </c>
-      <c r="F25" t="n">
         <v>-204</v>
       </c>
     </row>
@@ -9245,18 +8598,13 @@
           <t>Unexpected Expenses</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C26" t="n">
+        <v>407</v>
       </c>
       <c r="D26" t="n">
-        <v>407</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
         <v>-307</v>
       </c>
     </row>
@@ -9271,14 +8619,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>407</v>
+      </c>
       <c r="D27" t="n">
-        <v>407</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" t="n">
         <v>-307</v>
       </c>
     </row>
@@ -9293,18 +8640,13 @@
           <t>Haircuts</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C28" t="n">
+        <v>101</v>
       </c>
       <c r="D28" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
-      </c>
-      <c r="F28" t="n">
         <v>-51</v>
       </c>
     </row>
@@ -9319,14 +8661,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>101</v>
+      </c>
       <c r="D29" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
-      </c>
-      <c r="F29" t="n">
         <v>-51</v>
       </c>
     </row>
@@ -9341,18 +8682,13 @@
           <t>Emergency Fund</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C30" t="n">
+        <v>200</v>
       </c>
       <c r="D30" t="n">
         <v>200</v>
       </c>
       <c r="E30" t="n">
-        <v>200</v>
-      </c>
-      <c r="F30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9367,14 +8703,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>200</v>
+      </c>
       <c r="D31" t="n">
         <v>200</v>
       </c>
       <c r="E31" t="n">
-        <v>200</v>
-      </c>
-      <c r="F31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9389,20 +8724,15 @@
           <t>Public Transit</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
-      <c r="F32" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9415,16 +8745,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
-      <c r="F33" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9437,20 +8766,15 @@
           <t>Flights</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C34" t="n">
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
-      <c r="F34" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9463,16 +8787,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
-      <c r="F35" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9485,20 +8808,15 @@
           <t>Electricity</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
+      <c r="C36" t="n">
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
-      <c r="F36" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9511,16 +8829,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
-      <c r="F37" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9529,14 +8846,13 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>2302</v>
+      </c>
       <c r="D38" t="n">
-        <v>2302</v>
+        <v>3575</v>
       </c>
       <c r="E38" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F38" t="n">
         <v>1273</v>
       </c>
     </row>
@@ -9551,7 +8867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9572,20 +8888,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>total_amount_spent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total_amount_spent</t>
+          <t>amount_budgeted</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount_budgeted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
@@ -9602,18 +8913,13 @@
           <t>Gas</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9628,14 +8934,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9650,18 +8955,13 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9676,14 +8976,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9698,18 +8997,13 @@
           <t>Credit Card Payment</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C6" t="n">
+        <v>479</v>
       </c>
       <c r="D6" t="n">
-        <v>479</v>
+        <v>300</v>
       </c>
       <c r="E6" t="n">
-        <v>300</v>
-      </c>
-      <c r="F6" t="n">
         <v>-179</v>
       </c>
     </row>
@@ -9724,14 +9018,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>479</v>
+      </c>
       <c r="D7" t="n">
-        <v>479</v>
+        <v>300</v>
       </c>
       <c r="E7" t="n">
-        <v>300</v>
-      </c>
-      <c r="F7" t="n">
         <v>-179</v>
       </c>
     </row>
@@ -9746,20 +9039,15 @@
           <t>Restaurants</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
-      <c r="F8" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9772,16 +9060,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
-      <c r="F9" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9794,18 +9081,13 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C10" t="n">
+        <v>312</v>
       </c>
       <c r="D10" t="n">
-        <v>312</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
         <v>-262</v>
       </c>
     </row>
@@ -9820,14 +9102,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>312</v>
+      </c>
       <c r="D11" t="n">
-        <v>312</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" t="n">
         <v>-262</v>
       </c>
     </row>
@@ -9842,20 +9123,15 @@
           <t>Streaming Services</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
-      <c r="F12" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9868,16 +9144,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
-      <c r="F13" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9890,18 +9165,13 @@
           <t>Birthday Gifts</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C14" t="n">
+        <v>257</v>
       </c>
       <c r="D14" t="n">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" t="n">
         <v>-182</v>
       </c>
     </row>
@@ -9916,14 +9186,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>257</v>
+      </c>
       <c r="D15" t="n">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
-      </c>
-      <c r="F15" t="n">
         <v>-182</v>
       </c>
     </row>
@@ -9938,18 +9207,13 @@
           <t>Supermarket</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C16" t="n">
+        <v>295</v>
       </c>
       <c r="D16" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
-        <v>300</v>
-      </c>
-      <c r="F16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9964,14 +9228,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>295</v>
+      </c>
       <c r="D17" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E17" t="n">
-        <v>300</v>
-      </c>
-      <c r="F17" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9986,18 +9249,13 @@
           <t>Medical Bills</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10012,14 +9270,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10034,18 +9291,13 @@
           <t>Household Items</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10060,14 +9312,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10082,18 +9333,13 @@
           <t>Rent</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C22" t="n">
+        <v>355</v>
       </c>
       <c r="D22" t="n">
-        <v>355</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F22" t="n">
         <v>645</v>
       </c>
     </row>
@@ -10108,14 +9354,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>355</v>
+      </c>
       <c r="D23" t="n">
-        <v>355</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F23" t="n">
         <v>645</v>
       </c>
     </row>
@@ -10130,20 +9375,15 @@
           <t>Health Insurance</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
       </c>
-      <c r="F24" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10156,16 +9396,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
-      <c r="F25" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10178,18 +9417,13 @@
           <t>Unexpected Expenses</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10204,14 +9438,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10226,18 +9459,13 @@
           <t>Haircuts</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C28" t="n">
+        <v>70</v>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
-      </c>
-      <c r="F28" t="n">
         <v>-20</v>
       </c>
     </row>
@@ -10252,14 +9480,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>70</v>
+      </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
-      </c>
-      <c r="F29" t="n">
         <v>-20</v>
       </c>
     </row>
@@ -10274,20 +9501,15 @@
           <t>Emergency Fund</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
-      <c r="F30" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10300,16 +9522,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
-      <c r="F31" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10322,20 +9543,15 @@
           <t>Public Transit</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
-      <c r="F32" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10348,16 +9564,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
-      <c r="F33" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10370,20 +9585,15 @@
           <t>Flights</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C34" t="n">
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
-      <c r="F34" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10396,16 +9606,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
-      <c r="F35" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10418,18 +9627,13 @@
           <t>Electricity</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="C36" t="n">
+        <v>752</v>
       </c>
       <c r="D36" t="n">
-        <v>752</v>
+        <v>120</v>
       </c>
       <c r="E36" t="n">
-        <v>120</v>
-      </c>
-      <c r="F36" t="n">
         <v>-632</v>
       </c>
     </row>
@@ -10444,14 +9648,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>752</v>
+      </c>
       <c r="D37" t="n">
-        <v>752</v>
+        <v>120</v>
       </c>
       <c r="E37" t="n">
-        <v>120</v>
-      </c>
-      <c r="F37" t="n">
         <v>-632</v>
       </c>
     </row>
@@ -10462,14 +9665,13 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>2520</v>
+      </c>
       <c r="D38" t="n">
-        <v>2520</v>
+        <v>3575</v>
       </c>
       <c r="E38" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F38" t="n">
         <v>1055</v>
       </c>
     </row>
@@ -10484,7 +9686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10505,20 +9707,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>total_amount_spent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total_amount_spent</t>
+          <t>amount_budgeted</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount_budgeted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
@@ -10535,18 +9732,13 @@
           <t>Gas</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10561,14 +9753,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10583,18 +9774,13 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10609,14 +9795,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10631,18 +9816,13 @@
           <t>Credit Card Payment</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C6" t="n">
+        <v>46</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>300</v>
       </c>
       <c r="E6" t="n">
-        <v>300</v>
-      </c>
-      <c r="F6" t="n">
         <v>254</v>
       </c>
     </row>
@@ -10657,14 +9837,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>46</v>
+      </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>300</v>
       </c>
       <c r="E7" t="n">
-        <v>300</v>
-      </c>
-      <c r="F7" t="n">
         <v>254</v>
       </c>
     </row>
@@ -10679,20 +9858,15 @@
           <t>Restaurants</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
-      <c r="F8" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10705,16 +9879,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
-      <c r="F9" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10727,18 +9900,13 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C10" t="n">
+        <v>332</v>
       </c>
       <c r="D10" t="n">
-        <v>332</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
         <v>-282</v>
       </c>
     </row>
@@ -10753,14 +9921,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>332</v>
+      </c>
       <c r="D11" t="n">
-        <v>332</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" t="n">
         <v>-282</v>
       </c>
     </row>
@@ -10775,18 +9942,13 @@
           <t>Streaming Services</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C12" t="n">
+        <v>403</v>
       </c>
       <c r="D12" t="n">
-        <v>403</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" t="n">
         <v>-353</v>
       </c>
     </row>
@@ -10801,14 +9963,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>403</v>
+      </c>
       <c r="D13" t="n">
-        <v>403</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" t="n">
         <v>-353</v>
       </c>
     </row>
@@ -10823,20 +9984,15 @@
           <t>Birthday Gifts</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
-      <c r="F14" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10849,16 +10005,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
-      <c r="F15" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10871,18 +10026,13 @@
           <t>Supermarket</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C16" t="n">
+        <v>284</v>
       </c>
       <c r="D16" t="n">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
-        <v>300</v>
-      </c>
-      <c r="F16" t="n">
         <v>16</v>
       </c>
     </row>
@@ -10897,14 +10047,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>284</v>
+      </c>
       <c r="D17" t="n">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E17" t="n">
-        <v>300</v>
-      </c>
-      <c r="F17" t="n">
         <v>16</v>
       </c>
     </row>
@@ -10919,18 +10068,13 @@
           <t>Medical Bills</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10945,14 +10089,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10967,18 +10110,13 @@
           <t>Household Items</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10993,14 +10131,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11015,18 +10152,13 @@
           <t>Rent</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C22" t="n">
+        <v>56</v>
       </c>
       <c r="D22" t="n">
-        <v>56</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F22" t="n">
         <v>944</v>
       </c>
     </row>
@@ -11041,14 +10173,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>56</v>
+      </c>
       <c r="D23" t="n">
-        <v>56</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F23" t="n">
         <v>944</v>
       </c>
     </row>
@@ -11063,20 +10194,15 @@
           <t>Health Insurance</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
       </c>
-      <c r="F24" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11089,16 +10215,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
-      <c r="F25" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11111,18 +10236,13 @@
           <t>Unexpected Expenses</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C26" t="n">
+        <v>621</v>
       </c>
       <c r="D26" t="n">
-        <v>621</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
         <v>-521</v>
       </c>
     </row>
@@ -11137,14 +10257,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>621</v>
+      </c>
       <c r="D27" t="n">
-        <v>621</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" t="n">
         <v>-521</v>
       </c>
     </row>
@@ -11159,20 +10278,15 @@
           <t>Haircuts</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
-      <c r="F28" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11185,16 +10299,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
-      <c r="F29" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11207,20 +10320,15 @@
           <t>Emergency Fund</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
-      <c r="F30" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11233,16 +10341,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
-      <c r="F31" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11255,20 +10362,15 @@
           <t>Public Transit</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
-      <c r="F32" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11281,16 +10383,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
-      <c r="F33" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11303,20 +10404,15 @@
           <t>Flights</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C34" t="n">
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
-      <c r="F34" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11329,16 +10425,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
-      <c r="F35" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11351,18 +10446,13 @@
           <t>Electricity</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
+      <c r="C36" t="n">
+        <v>150</v>
       </c>
       <c r="D36" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E36" t="n">
-        <v>120</v>
-      </c>
-      <c r="F36" t="n">
         <v>-30</v>
       </c>
     </row>
@@ -11377,14 +10467,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>150</v>
+      </c>
       <c r="D37" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E37" t="n">
-        <v>120</v>
-      </c>
-      <c r="F37" t="n">
         <v>-30</v>
       </c>
     </row>
@@ -11395,14 +10484,13 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>1892</v>
+      </c>
       <c r="D38" t="n">
-        <v>1892</v>
+        <v>3575</v>
       </c>
       <c r="E38" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F38" t="n">
         <v>1683</v>
       </c>
     </row>
@@ -11417,7 +10505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11438,20 +10526,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>total_amount_spent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total_amount_spent</t>
+          <t>amount_budgeted</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount_budgeted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
@@ -11468,18 +10551,13 @@
           <t>Gas</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11494,14 +10572,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11516,18 +10593,13 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11542,14 +10614,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11564,20 +10635,15 @@
           <t>Credit Card Payment</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
-      <c r="F6" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11590,16 +10656,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
-      <c r="F7" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11612,20 +10677,15 @@
           <t>Restaurants</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
-      <c r="F8" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11638,16 +10698,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
-      <c r="F9" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11660,18 +10719,13 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C10" t="n">
+        <v>498</v>
       </c>
       <c r="D10" t="n">
-        <v>498</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
         <v>-448</v>
       </c>
     </row>
@@ -11686,14 +10740,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>498</v>
+      </c>
       <c r="D11" t="n">
-        <v>498</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" t="n">
         <v>-448</v>
       </c>
     </row>
@@ -11708,18 +10761,13 @@
           <t>Streaming Services</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C12" t="n">
+        <v>329</v>
       </c>
       <c r="D12" t="n">
-        <v>329</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" t="n">
         <v>-279</v>
       </c>
     </row>
@@ -11734,14 +10782,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>329</v>
+      </c>
       <c r="D13" t="n">
-        <v>329</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" t="n">
         <v>-279</v>
       </c>
     </row>
@@ -11756,20 +10803,15 @@
           <t>Birthday Gifts</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
-      <c r="F14" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11782,16 +10824,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
-      <c r="F15" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11804,18 +10845,13 @@
           <t>Supermarket</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C16" t="n">
+        <v>304</v>
       </c>
       <c r="D16" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
-        <v>300</v>
-      </c>
-      <c r="F16" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -11830,14 +10866,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>304</v>
+      </c>
       <c r="D17" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E17" t="n">
-        <v>300</v>
-      </c>
-      <c r="F17" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -11852,18 +10887,13 @@
           <t>Medical Bills</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C18" t="n">
+        <v>328</v>
       </c>
       <c r="D18" t="n">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
         <v>-228</v>
       </c>
     </row>
@@ -11878,14 +10908,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>328</v>
+      </c>
       <c r="D19" t="n">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
         <v>-228</v>
       </c>
     </row>
@@ -11900,18 +10929,13 @@
           <t>Household Items</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11926,14 +10950,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11948,20 +10971,15 @@
           <t>Rent</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="n">
         <v>1000</v>
       </c>
-      <c r="F22" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11974,16 +10992,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="n">
         <v>1000</v>
       </c>
-      <c r="F23" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11996,20 +11013,15 @@
           <t>Health Insurance</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
       </c>
-      <c r="F24" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12022,16 +11034,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
-      <c r="F25" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12044,18 +11055,13 @@
           <t>Unexpected Expenses</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C26" t="n">
+        <v>332</v>
       </c>
       <c r="D26" t="n">
-        <v>332</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
         <v>-232</v>
       </c>
     </row>
@@ -12070,14 +11076,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>332</v>
+      </c>
       <c r="D27" t="n">
-        <v>332</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" t="n">
         <v>-232</v>
       </c>
     </row>
@@ -12092,20 +11097,15 @@
           <t>Haircuts</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
-      <c r="F28" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -12118,16 +11118,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
-      <c r="F29" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12140,20 +11139,15 @@
           <t>Emergency Fund</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
       </c>
-      <c r="F30" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12166,16 +11160,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
       </c>
-      <c r="F31" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12188,20 +11181,15 @@
           <t>Public Transit</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
-      <c r="F32" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12214,16 +11202,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
-      <c r="F33" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12236,20 +11223,15 @@
           <t>Flights</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C34" t="n">
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E34" t="n">
         <v>500</v>
       </c>
-      <c r="F34" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12262,16 +11244,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E35" t="n">
         <v>500</v>
       </c>
-      <c r="F35" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12284,20 +11265,15 @@
           <t>Electricity</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
+      <c r="C36" t="n">
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
-      <c r="F36" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12310,16 +11286,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
-      <c r="F37" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12328,14 +11303,13 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>1791</v>
+      </c>
       <c r="D38" t="n">
-        <v>1791</v>
+        <v>3575</v>
       </c>
       <c r="E38" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F38" t="n">
         <v>1784</v>
       </c>
     </row>
@@ -12350,7 +11324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12371,20 +11345,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>total_amount_spent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total_amount_spent</t>
+          <t>amount_budgeted</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount_budgeted</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
@@ -12401,18 +11370,13 @@
           <t>Gas</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C2" t="n">
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
         <v>64</v>
       </c>
     </row>
@@ -12427,14 +11391,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
         <v>64</v>
       </c>
     </row>
@@ -12449,18 +11412,13 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C4" t="n">
+        <v>94</v>
       </c>
       <c r="D4" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -12475,14 +11433,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>94</v>
+      </c>
       <c r="D5" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -12497,20 +11454,15 @@
           <t>Credit Card Payment</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
       </c>
-      <c r="F6" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12523,16 +11475,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
       </c>
-      <c r="F7" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12545,20 +11496,15 @@
           <t>Restaurants</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
         <v>150</v>
       </c>
-      <c r="F8" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12571,16 +11517,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
         <v>150</v>
       </c>
-      <c r="F9" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12593,20 +11538,15 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
-      <c r="F10" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -12619,16 +11559,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -12641,20 +11580,15 @@
           <t>Streaming Services</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
-      <c r="F12" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -12667,16 +11601,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
       </c>
-      <c r="F13" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12689,20 +11622,15 @@
           <t>Birthday Gifts</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>75</v>
       </c>
-      <c r="F14" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12715,16 +11643,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>75</v>
       </c>
-      <c r="F15" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12737,20 +11664,15 @@
           <t>Supermarket</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
       </c>
-      <c r="F16" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12763,16 +11685,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
       </c>
-      <c r="F17" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12785,18 +11706,13 @@
           <t>Medical Bills</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C18" t="n">
+        <v>375</v>
       </c>
       <c r="D18" t="n">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
         <v>-275</v>
       </c>
     </row>
@@ -12811,14 +11727,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>375</v>
+      </c>
       <c r="D19" t="n">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
         <v>-275</v>
       </c>
     </row>
@@ -12833,18 +11748,13 @@
           <t>Household Items</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C20" t="n">
+        <v>99</v>
       </c>
       <c r="D20" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12859,14 +11769,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>99</v>
+      </c>
       <c r="D21" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12881,18 +11790,13 @@
           <t>Rent</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C22" t="n">
+        <v>162</v>
       </c>
       <c r="D22" t="n">
-        <v>162</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F22" t="n">
         <v>838</v>
       </c>
     </row>
@@ -12907,14 +11811,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>162</v>
+      </c>
       <c r="D23" t="n">
-        <v>162</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F23" t="n">
         <v>838</v>
       </c>
     </row>
@@ -12929,20 +11832,15 @@
           <t>Health Insurance</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
       </c>
-      <c r="F24" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12955,16 +11853,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
       </c>
-      <c r="F25" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12977,18 +11874,13 @@
           <t>Unexpected Expenses</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
-      </c>
-      <c r="F26" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13003,14 +11895,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
-      </c>
-      <c r="F27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13025,20 +11916,15 @@
           <t>Haircuts</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
-      <c r="F28" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -13051,16 +11937,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>50</v>
       </c>
-      <c r="F29" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -13073,18 +11958,13 @@
           <t>Emergency Fund</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C30" t="n">
+        <v>460</v>
       </c>
       <c r="D30" t="n">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="E30" t="n">
-        <v>200</v>
-      </c>
-      <c r="F30" t="n">
         <v>-260</v>
       </c>
     </row>
@@ -13099,14 +11979,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>460</v>
+      </c>
       <c r="D31" t="n">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
-        <v>200</v>
-      </c>
-      <c r="F31" t="n">
         <v>-260</v>
       </c>
     </row>
@@ -13121,20 +12000,15 @@
           <t>Public Transit</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
       </c>
-      <c r="F32" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13147,16 +12021,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
         <v>80</v>
       </c>
-      <c r="F33" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13169,18 +12042,13 @@
           <t>Flights</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C34" t="n">
+        <v>90</v>
       </c>
       <c r="D34" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="E34" t="n">
-        <v>500</v>
-      </c>
-      <c r="F34" t="n">
         <v>410</v>
       </c>
     </row>
@@ -13195,14 +12063,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>90</v>
+      </c>
       <c r="D35" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="E35" t="n">
-        <v>500</v>
-      </c>
-      <c r="F35" t="n">
         <v>410</v>
       </c>
     </row>
@@ -13217,20 +12084,15 @@
           <t>Electricity</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
+      <c r="C36" t="n">
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
       </c>
-      <c r="F36" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13243,16 +12105,15 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
       </c>
-      <c r="F37" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13261,14 +12122,13 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>1316</v>
+      </c>
       <c r="D38" t="n">
-        <v>1316</v>
+        <v>3575</v>
       </c>
       <c r="E38" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F38" t="n">
         <v>2259</v>
       </c>
     </row>

--- a/notebooks/example_output.xlsx
+++ b/notebooks/example_output.xlsx
@@ -518,11 +518,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3646,17 +3647,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2">
         <v>1235</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3575</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>2340</v>
       </c>
     </row>
@@ -4302,17 +4303,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2">
         <v>3293</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3575</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>282</v>
       </c>
     </row>
@@ -4958,17 +4959,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2">
         <v>537</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3575</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>3038</v>
       </c>
     </row>
@@ -5836,17 +5837,17 @@
         <v>-718</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2">
         <v>2198</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3575</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1377</v>
       </c>
     </row>
@@ -6492,17 +6493,17 @@
         <v>-86</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2">
         <v>3236</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3575</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>339</v>
       </c>
     </row>
@@ -7148,17 +7149,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2">
         <v>2302</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3575</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1273</v>
       </c>
     </row>
@@ -7804,17 +7805,17 @@
         <v>-632</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2">
         <v>2520</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3575</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1055</v>
       </c>
     </row>
@@ -8460,17 +8461,17 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2">
         <v>1892</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3575</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1683</v>
       </c>
     </row>
@@ -9116,17 +9117,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2">
         <v>1791</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3575</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1784</v>
       </c>
     </row>
@@ -9772,17 +9773,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2">
         <v>1316</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>3575</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>2259</v>
       </c>
     </row>

--- a/notebooks/example_output.xlsx
+++ b/notebooks/example_output.xlsx
@@ -823,6 +823,16 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -3017,6 +3027,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -3673,6 +3690,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -4329,6 +4353,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -4985,6 +5016,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -5207,6 +5243,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -5863,6 +5906,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -6519,6 +6569,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -7175,6 +7232,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -7831,6 +7895,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -8487,6 +8558,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -9143,6 +9221,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
